--- a/bsd-api-dms-order/sample_Order_File_aice_v3 - 1.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_aice_v3 - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800FA571-6B1D-4427-9DF1-0938E74A76D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270658F6-6F18-41F7-8A25-67705CF662CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Row</t>
   </si>
@@ -152,19 +152,16 @@
     <t>KANGNY_FOOD_TRADING_SUBDIST_1</t>
   </si>
   <si>
-    <t>Test Aice A_2</t>
-  </si>
-  <si>
-    <t>A_2</t>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>Test Aice A_1</t>
   </si>
   <si>
     <t>1/1</t>
   </si>
   <si>
-    <t>INV/20231211/22/01</t>
-  </si>
-  <si>
-    <t>INV/20231211/22/02</t>
+    <t>INV/20231211/25/01</t>
   </si>
 </sst>
 </file>
@@ -455,11 +452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG3"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,10 +634,10 @@
         <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
@@ -685,86 +682,6 @@
         <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1000</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1000</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>1000</v>
-      </c>
-      <c r="T3">
-        <v>1000</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" t="s">
         <v>29</v>
       </c>
     </row>

--- a/bsd-api-dms-order/sample_Order_File_aice_v3 - 1.xlsx
+++ b/bsd-api-dms-order/sample_Order_File_aice_v3 - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270658F6-6F18-41F7-8A25-67705CF662CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E751E8B-9EFC-424D-8998-2FF29708709D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>Kota Medan</t>
   </si>
   <si>
-    <t>INDOGROSIR</t>
-  </si>
-  <si>
     <t>Jl. Sisingamangaraja No.29b, Harjosari I, Kec. Medan Amplas, Kota Medan, Sumatera Utara 20148, Indonesia</t>
   </si>
   <si>
@@ -143,25 +140,28 @@
     <t>Market ID</t>
   </si>
   <si>
-    <t>PT. KANGNY FOOD TRADING - Medan Barat</t>
-  </si>
-  <si>
     <t>Aice</t>
   </si>
   <si>
-    <t>KANGNY_FOOD_TRADING_SUBDIST_1</t>
-  </si>
-  <si>
-    <t>A_1</t>
-  </si>
-  <si>
-    <t>Test Aice A_1</t>
-  </si>
-  <si>
     <t>1/1</t>
   </si>
   <si>
-    <t>INV/20231211/25/01</t>
+    <t>PT. AKIRA KANAIK INDAH - Ciputat</t>
+  </si>
+  <si>
+    <t>Arief</t>
+  </si>
+  <si>
+    <t>INV/20231217/01/01</t>
+  </si>
+  <si>
+    <t>8885013130492</t>
+  </si>
+  <si>
+    <t>AICE Milk Stick 40g AICE牛奶支40g</t>
+  </si>
+  <si>
+    <t>TAMAN SURYA</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -499,10 +499,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
@@ -610,13 +610,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -628,16 +628,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
@@ -664,10 +664,10 @@
         <v>1000</v>
       </c>
       <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
         <v>28</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
       </c>
       <c r="X2" t="s">
         <v>26</v>
@@ -676,13 +676,13 @@
         <v>27</v>
       </c>
       <c r="Z2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" t="s">
-        <v>31</v>
-      </c>
       <c r="AB2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
